--- a/数据整理/stocks/A股/深证主板/002124-天邦食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002124-天邦食品.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>39</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>9.050000000000001</v>
       </c>
     </row>
@@ -498,6 +515,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5977</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
